--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -434,41 +434,65 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Flight Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Departure</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stopover</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Destination</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Divert</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Check-in Counter</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Boarding Gate</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Baggage Claim</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled Arrival Time</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Estimated Arrival Time</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Delay Reason</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Language Type</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -498,11 +522,15 @@
           <t>B11-B18</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>18</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -544,11 +572,15 @@
           <t>C13-C18</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -594,11 +626,15 @@
           <t>F01-F06-F08</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>130</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -694,11 +730,15 @@
           <t>F11-F20</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
